--- a/fechamento_2021/fechamento_outubro/NegativoTesteOutubro.xlsx
+++ b/fechamento_2021/fechamento_outubro/NegativoTesteOutubro.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="675" windowWidth="27315" windowHeight="12030"/>
+    <workbookView xWindow="960" yWindow="675" windowWidth="21840" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$277</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="488">
   <si>
     <t>GUSTAVO NATAN VASCONCELOS DE SOUSA</t>
   </si>
@@ -1318,6 +1321,168 @@
   </si>
   <si>
     <t>RENATA CARVALHO MUNIZ DE JESUS</t>
+  </si>
+  <si>
+    <t>MARIA JULIETA S JORGE</t>
+  </si>
+  <si>
+    <t>SGNE</t>
+  </si>
+  <si>
+    <t>MARIA LUIZA FARIA LEANDRO DA SILVA</t>
+  </si>
+  <si>
+    <t>Tosse, Dispneia, Dor de Garganta, Outros, Coriza</t>
+  </si>
+  <si>
+    <t>MARIANA N DE TOLEDO</t>
+  </si>
+  <si>
+    <t>41ADG335A</t>
+  </si>
+  <si>
+    <t>MARIANA VENTURA BUSSULETTI</t>
+  </si>
+  <si>
+    <t>41ADG330A</t>
+  </si>
+  <si>
+    <t>MARIANNE PEREIRA TAVEIRA COSTA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dispneia, Tosse</t>
+  </si>
+  <si>
+    <t>2106913b</t>
+  </si>
+  <si>
+    <t>MARINA MORAES DE LUCCA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dor de Garganta, Coriza</t>
+  </si>
+  <si>
+    <t>41ADG337A</t>
+  </si>
+  <si>
+    <t>MARISTANE ALVES FREIRE</t>
+  </si>
+  <si>
+    <t>MARIZA MACEDO SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dispneia, Coriza</t>
+  </si>
+  <si>
+    <t>MARYLENE DE LIMA LUZIO</t>
+  </si>
+  <si>
+    <t>CONF. CRIT. CLÍNICO</t>
+  </si>
+  <si>
+    <t>MEG PENAFORTE DE SOUZA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>MIALVO BENTO TEIXEIRA JUNIOR</t>
+  </si>
+  <si>
+    <t>41adg337a</t>
+  </si>
+  <si>
+    <t>MICHELLE R GERONIMO</t>
+  </si>
+  <si>
+    <t>MILENA GONCALVES DE SOUZA</t>
+  </si>
+  <si>
+    <t>MIRIAN LOPES DA SILVA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>41adg327a</t>
+  </si>
+  <si>
+    <t>NANCI DOS SANTOS</t>
+  </si>
+  <si>
+    <t>NATALIA KUKI</t>
+  </si>
+  <si>
+    <t>NATHALIA MBISPO FERREIRA</t>
+  </si>
+  <si>
+    <t>NATHALIA SOARES GOMES</t>
+  </si>
+  <si>
+    <t>NIVIA MARIA DE LIMA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Dor de Garganta, Febre</t>
+  </si>
+  <si>
+    <t>41ADG228A</t>
+  </si>
+  <si>
+    <t>OTACILIO MENEZES FILHO</t>
+  </si>
+  <si>
+    <t>Tosse, Coriza</t>
+  </si>
+  <si>
+    <t>41ADG327A</t>
+  </si>
+  <si>
+    <t>PATRICIA AVILA NAGEM</t>
+  </si>
+  <si>
+    <t>PAULA DO CARMO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>41ADG468A</t>
+  </si>
+  <si>
+    <t>RAFAEL CAMARGO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Tosse</t>
+  </si>
+  <si>
+    <t>RAFAEL DA ROCHA</t>
+  </si>
+  <si>
+    <t>41ADG320A</t>
+  </si>
+  <si>
+    <t>RAFAEL DA SILVA</t>
+  </si>
+  <si>
+    <t>RAPHAEL AGUIAR RODRIGUES DA COSTA</t>
+  </si>
+  <si>
+    <t>41adg311a</t>
+  </si>
+  <si>
+    <t>REGINALDO NASCIMENTO OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>RENATA MOLEZINNE BRAZ</t>
+  </si>
+  <si>
+    <t>RENATO ROSSET</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Outros</t>
+  </si>
+  <si>
+    <t>RICARDO A L NASCIMENTO</t>
+  </si>
+  <si>
+    <t>RITA DE CASSIA RUIZ DA SILVA TAVARES</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI246"/>
+  <dimension ref="A1:BI277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235:XFD246"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21450,7 +21615,2133 @@
         <v>13</v>
       </c>
     </row>
+    <row r="247" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>3521102791500</v>
+      </c>
+      <c r="B247" s="2">
+        <v>44481</v>
+      </c>
+      <c r="C247" t="s">
+        <v>434</v>
+      </c>
+      <c r="D247" s="2">
+        <v>24976</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F247" t="s">
+        <v>311</v>
+      </c>
+      <c r="M247" s="3"/>
+      <c r="O247" s="4"/>
+      <c r="P247" s="5"/>
+      <c r="R247" s="4"/>
+      <c r="S247" s="5"/>
+      <c r="V247" s="5"/>
+      <c r="Y247" s="3"/>
+      <c r="AB247" s="5"/>
+      <c r="AE247" s="5"/>
+      <c r="AH247" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI247" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AJ247" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK247">
+        <v>202102056</v>
+      </c>
+      <c r="AL247" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM247" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN247" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AO247" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP247">
+        <v>202102056</v>
+      </c>
+      <c r="AQ247" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS247" s="5"/>
+      <c r="AY247" s="5"/>
+      <c r="BH247" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>3521102716959</v>
+      </c>
+      <c r="B248" s="2">
+        <v>44479</v>
+      </c>
+      <c r="C248" t="s">
+        <v>436</v>
+      </c>
+      <c r="D248" s="2">
+        <v>38172</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44467</v>
+      </c>
+      <c r="F248" t="s">
+        <v>437</v>
+      </c>
+      <c r="M248" s="3"/>
+      <c r="O248" s="4"/>
+      <c r="P248" s="5"/>
+      <c r="R248" s="4"/>
+      <c r="S248" s="5"/>
+      <c r="V248" s="5"/>
+      <c r="Y248" s="3"/>
+      <c r="AB248" s="5"/>
+      <c r="AE248" s="5"/>
+      <c r="AH248" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI248" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AJ248" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK248" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL248" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM248" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN248" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AO248" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP248" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ248" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS248" s="5"/>
+      <c r="AY248" s="5"/>
+      <c r="BH248" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>3521102457667</v>
+      </c>
+      <c r="B249" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C249" t="s">
+        <v>438</v>
+      </c>
+      <c r="D249" s="2">
+        <v>33029</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44474</v>
+      </c>
+      <c r="F249" t="s">
+        <v>301</v>
+      </c>
+      <c r="M249" s="3"/>
+      <c r="O249" s="4"/>
+      <c r="P249" s="5"/>
+      <c r="R249" s="4"/>
+      <c r="S249" s="5"/>
+      <c r="V249" s="5"/>
+      <c r="Y249" s="3"/>
+      <c r="AB249" s="5"/>
+      <c r="AE249" s="5"/>
+      <c r="AH249" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI249" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AJ249" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK249" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL249" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM249" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN249" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AO249" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP249" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS249" s="5"/>
+      <c r="AY249" s="5"/>
+      <c r="BH249" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>3521102930770</v>
+      </c>
+      <c r="B250" s="2">
+        <v>44483</v>
+      </c>
+      <c r="C250" t="s">
+        <v>440</v>
+      </c>
+      <c r="D250" s="2">
+        <v>36295</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44480</v>
+      </c>
+      <c r="F250" t="s">
+        <v>214</v>
+      </c>
+      <c r="M250" s="3"/>
+      <c r="O250" s="4"/>
+      <c r="P250" s="5"/>
+      <c r="R250" s="4"/>
+      <c r="S250" s="5"/>
+      <c r="V250" s="5"/>
+      <c r="Y250" s="3"/>
+      <c r="AB250" s="5"/>
+      <c r="AE250" s="5"/>
+      <c r="AH250" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI250" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AJ250" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL250" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM250" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN250" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AO250" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP250" t="s">
+        <v>441</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS250" s="5"/>
+      <c r="AY250" s="5"/>
+      <c r="BH250" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>3521103178708</v>
+      </c>
+      <c r="B251" s="2">
+        <v>44486</v>
+      </c>
+      <c r="C251" t="s">
+        <v>442</v>
+      </c>
+      <c r="D251" s="2">
+        <v>37381</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44478</v>
+      </c>
+      <c r="F251" t="s">
+        <v>443</v>
+      </c>
+      <c r="M251" s="3"/>
+      <c r="O251" s="4"/>
+      <c r="P251" s="5"/>
+      <c r="R251" s="4"/>
+      <c r="S251" s="5"/>
+      <c r="V251" s="5"/>
+      <c r="Y251" s="3"/>
+      <c r="AB251" s="5"/>
+      <c r="AE251" s="5"/>
+      <c r="AH251" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI251" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AJ251" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL251" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN251" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AO251" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP251" t="s">
+        <v>444</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS251" s="5"/>
+      <c r="AY251" s="5"/>
+      <c r="BH251" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>3521104294458</v>
+      </c>
+      <c r="B252" s="2">
+        <v>44499</v>
+      </c>
+      <c r="C252" t="s">
+        <v>445</v>
+      </c>
+      <c r="D252" s="2">
+        <v>33785</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44495</v>
+      </c>
+      <c r="F252" t="s">
+        <v>446</v>
+      </c>
+      <c r="M252" s="3"/>
+      <c r="O252" s="4"/>
+      <c r="P252" s="5"/>
+      <c r="R252" s="4"/>
+      <c r="S252" s="5"/>
+      <c r="V252" s="5"/>
+      <c r="Y252" s="3"/>
+      <c r="AB252" s="5"/>
+      <c r="AE252" s="5"/>
+      <c r="AH252" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI252" s="2">
+        <v>44499</v>
+      </c>
+      <c r="AJ252" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK252" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL252" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM252" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN252" s="2">
+        <v>44499</v>
+      </c>
+      <c r="AO252" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP252" t="s">
+        <v>447</v>
+      </c>
+      <c r="AQ252" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS252" s="5"/>
+      <c r="AY252" s="5"/>
+      <c r="BH252" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>3521102721205</v>
+      </c>
+      <c r="B253" s="2">
+        <v>44480</v>
+      </c>
+      <c r="C253" t="s">
+        <v>448</v>
+      </c>
+      <c r="D253" s="2">
+        <v>28277</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44479</v>
+      </c>
+      <c r="F253" t="s">
+        <v>79</v>
+      </c>
+      <c r="M253" s="3"/>
+      <c r="O253" s="4"/>
+      <c r="P253" s="5"/>
+      <c r="R253" s="4"/>
+      <c r="S253" s="5"/>
+      <c r="V253" s="5"/>
+      <c r="Y253" s="3"/>
+      <c r="AB253" s="5"/>
+      <c r="AE253" s="5"/>
+      <c r="AH253" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI253" s="2">
+        <v>44480</v>
+      </c>
+      <c r="AJ253" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK253" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL253" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM253" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN253" s="2">
+        <v>44480</v>
+      </c>
+      <c r="AO253" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP253" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ253" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS253" s="5"/>
+      <c r="AY253" s="5"/>
+      <c r="BH253" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>3521103175419</v>
+      </c>
+      <c r="B254" s="2">
+        <v>44486</v>
+      </c>
+      <c r="C254" t="s">
+        <v>449</v>
+      </c>
+      <c r="D254" s="2">
+        <v>29497</v>
+      </c>
+      <c r="E254" s="2">
+        <v>44484</v>
+      </c>
+      <c r="F254" t="s">
+        <v>450</v>
+      </c>
+      <c r="M254" s="3"/>
+      <c r="O254" s="4"/>
+      <c r="P254" s="5"/>
+      <c r="R254" s="4"/>
+      <c r="S254" s="5"/>
+      <c r="V254" s="5"/>
+      <c r="Y254" s="3"/>
+      <c r="AB254" s="5"/>
+      <c r="AE254" s="5"/>
+      <c r="AH254" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI254" s="2">
+        <v>44486</v>
+      </c>
+      <c r="AJ254" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL254" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN254" s="2">
+        <v>44486</v>
+      </c>
+      <c r="AO254" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP254" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ254" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS254" s="5"/>
+      <c r="AY254" s="5"/>
+      <c r="BH254" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>3521102411453</v>
+      </c>
+      <c r="B255" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C255" t="s">
+        <v>451</v>
+      </c>
+      <c r="D255" s="2">
+        <v>28518</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44351</v>
+      </c>
+      <c r="F255" t="s">
+        <v>351</v>
+      </c>
+      <c r="M255" s="3"/>
+      <c r="O255" s="4"/>
+      <c r="P255" s="5"/>
+      <c r="R255" s="4"/>
+      <c r="S255" s="5"/>
+      <c r="V255" s="5"/>
+      <c r="Y255" s="3"/>
+      <c r="AB255" s="5"/>
+      <c r="AE255" s="5"/>
+      <c r="AH255" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI255" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AJ255" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK255">
+        <v>202102056</v>
+      </c>
+      <c r="AL255" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN255" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AO255" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP255">
+        <v>202102056</v>
+      </c>
+      <c r="AQ255" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS255" s="5"/>
+      <c r="AY255" s="5"/>
+      <c r="BH255" t="s">
+        <v>452</v>
+      </c>
+      <c r="BI255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>3521104327260</v>
+      </c>
+      <c r="B256" s="2">
+        <v>44493</v>
+      </c>
+      <c r="C256" t="s">
+        <v>453</v>
+      </c>
+      <c r="D256" s="2">
+        <v>33085</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44490</v>
+      </c>
+      <c r="F256" t="s">
+        <v>454</v>
+      </c>
+      <c r="M256" s="3"/>
+      <c r="O256" s="4"/>
+      <c r="P256" s="5"/>
+      <c r="R256" s="4"/>
+      <c r="S256" s="5"/>
+      <c r="V256" s="5"/>
+      <c r="Y256" s="3"/>
+      <c r="AB256" s="5"/>
+      <c r="AE256" s="5"/>
+      <c r="AH256" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI256" s="2">
+        <v>44493</v>
+      </c>
+      <c r="AJ256" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL256" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM256" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN256" s="2">
+        <v>44493</v>
+      </c>
+      <c r="AO256" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP256" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ256" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS256" s="5"/>
+      <c r="AY256" s="5"/>
+      <c r="BH256" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>3521104088239</v>
+      </c>
+      <c r="B257" s="2">
+        <v>44496</v>
+      </c>
+      <c r="C257" t="s">
+        <v>455</v>
+      </c>
+      <c r="D257" s="2">
+        <v>29119</v>
+      </c>
+      <c r="E257" s="2">
+        <v>44492</v>
+      </c>
+      <c r="F257" t="s">
+        <v>422</v>
+      </c>
+      <c r="M257" s="3"/>
+      <c r="O257" s="4"/>
+      <c r="P257" s="5"/>
+      <c r="R257" s="4"/>
+      <c r="S257" s="5"/>
+      <c r="V257" s="5"/>
+      <c r="Y257" s="3"/>
+      <c r="AB257" s="5"/>
+      <c r="AE257" s="5"/>
+      <c r="AH257" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI257" s="2">
+        <v>44496</v>
+      </c>
+      <c r="AJ257" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>456</v>
+      </c>
+      <c r="AL257" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN257" s="2">
+        <v>44496</v>
+      </c>
+      <c r="AO257" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP257" t="s">
+        <v>456</v>
+      </c>
+      <c r="AQ257" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS257" s="5"/>
+      <c r="AY257" s="5"/>
+      <c r="BH257" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>3521103760121</v>
+      </c>
+      <c r="B258" s="2">
+        <v>44493</v>
+      </c>
+      <c r="C258" t="s">
+        <v>457</v>
+      </c>
+      <c r="D258" s="2">
+        <v>25569</v>
+      </c>
+      <c r="E258" s="2">
+        <v>44489</v>
+      </c>
+      <c r="F258" t="s">
+        <v>168</v>
+      </c>
+      <c r="M258" s="3"/>
+      <c r="O258" s="4"/>
+      <c r="P258" s="5"/>
+      <c r="R258" s="4"/>
+      <c r="S258" s="5"/>
+      <c r="V258" s="5"/>
+      <c r="Y258" s="3"/>
+      <c r="AB258" s="5"/>
+      <c r="AE258" s="5"/>
+      <c r="AH258" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI258" s="2">
+        <v>44493</v>
+      </c>
+      <c r="AJ258" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL258" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN258" s="2">
+        <v>44493</v>
+      </c>
+      <c r="AO258" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS258" s="5"/>
+      <c r="AY258" s="5"/>
+      <c r="BH258" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>3521102781327</v>
+      </c>
+      <c r="B259" s="2">
+        <v>44480</v>
+      </c>
+      <c r="C259" t="s">
+        <v>458</v>
+      </c>
+      <c r="D259" s="2">
+        <v>36159</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F259" t="s">
+        <v>311</v>
+      </c>
+      <c r="M259" s="3"/>
+      <c r="O259" s="4"/>
+      <c r="P259" s="5"/>
+      <c r="R259" s="4"/>
+      <c r="S259" s="5"/>
+      <c r="V259" s="5"/>
+      <c r="Y259" s="3"/>
+      <c r="AB259" s="5"/>
+      <c r="AE259" s="5"/>
+      <c r="AH259" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI259" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AJ259" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK259">
+        <v>2106913</v>
+      </c>
+      <c r="AL259" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM259" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN259" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AO259" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP259">
+        <v>2106913</v>
+      </c>
+      <c r="AQ259" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS259" s="5"/>
+      <c r="AY259" s="5"/>
+      <c r="BH259" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>3521104315740</v>
+      </c>
+      <c r="B260" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C260" t="s">
+        <v>459</v>
+      </c>
+      <c r="D260" s="2">
+        <v>24568</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44498</v>
+      </c>
+      <c r="F260" t="s">
+        <v>68</v>
+      </c>
+      <c r="M260" s="3"/>
+      <c r="O260" s="4"/>
+      <c r="P260" s="5"/>
+      <c r="R260" s="4"/>
+      <c r="S260" s="5"/>
+      <c r="V260" s="5"/>
+      <c r="Y260" s="3"/>
+      <c r="AB260" s="5"/>
+      <c r="AE260" s="5"/>
+      <c r="AH260" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI260" s="2">
+        <v>44499</v>
+      </c>
+      <c r="AJ260" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK260" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL260" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM260" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN260" s="2">
+        <v>44499</v>
+      </c>
+      <c r="AO260" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP260" t="s">
+        <v>460</v>
+      </c>
+      <c r="AQ260" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS260" s="5"/>
+      <c r="AY260" s="5"/>
+      <c r="BH260" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>3521103758181</v>
+      </c>
+      <c r="B261" s="2">
+        <v>44493</v>
+      </c>
+      <c r="C261" t="s">
+        <v>461</v>
+      </c>
+      <c r="D261" s="2">
+        <v>24250</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44482</v>
+      </c>
+      <c r="F261" t="s">
+        <v>311</v>
+      </c>
+      <c r="M261" s="3"/>
+      <c r="O261" s="4"/>
+      <c r="P261" s="5"/>
+      <c r="R261" s="4"/>
+      <c r="S261" s="5"/>
+      <c r="V261" s="5"/>
+      <c r="Y261" s="3"/>
+      <c r="AB261" s="5"/>
+      <c r="AE261" s="5"/>
+      <c r="AH261" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI261" s="2">
+        <v>44493</v>
+      </c>
+      <c r="AJ261" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL261" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN261" s="2">
+        <v>44493</v>
+      </c>
+      <c r="AO261" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP261" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ261" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS261" s="5"/>
+      <c r="AY261" s="5"/>
+      <c r="BH261" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>3521103739034</v>
+      </c>
+      <c r="B262" s="2">
+        <v>44492</v>
+      </c>
+      <c r="C262" t="s">
+        <v>462</v>
+      </c>
+      <c r="D262" s="2">
+        <v>31930</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44489</v>
+      </c>
+      <c r="F262" t="s">
+        <v>150</v>
+      </c>
+      <c r="M262" s="3"/>
+      <c r="O262" s="4"/>
+      <c r="P262" s="5"/>
+      <c r="R262" s="4"/>
+      <c r="S262" s="5"/>
+      <c r="V262" s="5"/>
+      <c r="Y262" s="3"/>
+      <c r="AB262" s="5"/>
+      <c r="AE262" s="5"/>
+      <c r="AH262" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI262" s="2">
+        <v>44492</v>
+      </c>
+      <c r="AJ262" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK262" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL262" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM262" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN262" s="2">
+        <v>44492</v>
+      </c>
+      <c r="AO262" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP262" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ262" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS262" s="5"/>
+      <c r="AY262" s="5"/>
+      <c r="BH262" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>3521103230602</v>
+      </c>
+      <c r="B263" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C263" t="s">
+        <v>463</v>
+      </c>
+      <c r="D263" s="2">
+        <v>35891</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44484</v>
+      </c>
+      <c r="F263" t="s">
+        <v>70</v>
+      </c>
+      <c r="J263" s="2">
+        <v>44487</v>
+      </c>
+      <c r="L263" t="s">
+        <v>40</v>
+      </c>
+      <c r="M263" s="3"/>
+      <c r="O263" s="4"/>
+      <c r="P263" s="5"/>
+      <c r="R263" s="4"/>
+      <c r="S263" s="5"/>
+      <c r="V263" s="5"/>
+      <c r="Y263" s="3"/>
+      <c r="AB263" s="5"/>
+      <c r="AE263" s="5"/>
+      <c r="AH263" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI263" s="2">
+        <v>44487</v>
+      </c>
+      <c r="AJ263" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK263" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL263" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM263" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN263" s="2">
+        <v>44487</v>
+      </c>
+      <c r="AO263" s="4"/>
+      <c r="AR263" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS263" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT263" s="2">
+        <v>44487</v>
+      </c>
+      <c r="AU263" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV263" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW263" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY263" s="5"/>
+      <c r="BH263" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>3521102567203</v>
+      </c>
+      <c r="B264" s="2">
+        <v>44477</v>
+      </c>
+      <c r="C264" t="s">
+        <v>464</v>
+      </c>
+      <c r="D264" s="2">
+        <v>35942</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44473</v>
+      </c>
+      <c r="F264" t="s">
+        <v>72</v>
+      </c>
+      <c r="M264" s="3"/>
+      <c r="O264" s="4"/>
+      <c r="P264" s="5"/>
+      <c r="R264" s="4"/>
+      <c r="S264" s="5"/>
+      <c r="V264" s="5"/>
+      <c r="Y264" s="3"/>
+      <c r="AB264" s="5"/>
+      <c r="AE264" s="5"/>
+      <c r="AH264" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI264" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AJ264" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL264" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN264" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AO264" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP264" t="s">
+        <v>447</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS264" s="5"/>
+      <c r="AY264" s="5"/>
+      <c r="BH264" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>3521102558117</v>
+      </c>
+      <c r="B265" s="2">
+        <v>44476</v>
+      </c>
+      <c r="C265" t="s">
+        <v>465</v>
+      </c>
+      <c r="D265" s="2">
+        <v>31625</v>
+      </c>
+      <c r="E265" s="2">
+        <v>44474</v>
+      </c>
+      <c r="F265" t="s">
+        <v>466</v>
+      </c>
+      <c r="M265" s="3"/>
+      <c r="O265" s="4"/>
+      <c r="P265" s="5"/>
+      <c r="R265" s="4"/>
+      <c r="S265" s="5"/>
+      <c r="V265" s="5"/>
+      <c r="Y265" s="3"/>
+      <c r="AB265" s="5"/>
+      <c r="AE265" s="5"/>
+      <c r="AH265" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI265" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AJ265" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK265" t="s">
+        <v>467</v>
+      </c>
+      <c r="AL265" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN265" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AO265" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP265" t="s">
+        <v>467</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS265" s="5"/>
+      <c r="AY265" s="5"/>
+      <c r="BH265" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>3521103146532</v>
+      </c>
+      <c r="B266" s="2">
+        <v>44485</v>
+      </c>
+      <c r="C266" t="s">
+        <v>468</v>
+      </c>
+      <c r="D266" s="2">
+        <v>21876</v>
+      </c>
+      <c r="E266" s="2">
+        <v>44481</v>
+      </c>
+      <c r="F266" t="s">
+        <v>469</v>
+      </c>
+      <c r="M266" s="3"/>
+      <c r="O266" s="4"/>
+      <c r="P266" s="5"/>
+      <c r="R266" s="4"/>
+      <c r="S266" s="5"/>
+      <c r="V266" s="5"/>
+      <c r="Y266" s="3"/>
+      <c r="AB266" s="5"/>
+      <c r="AE266" s="5"/>
+      <c r="AH266" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI266" s="2">
+        <v>44485</v>
+      </c>
+      <c r="AJ266" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK266" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL266" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM266" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN266" s="2">
+        <v>44485</v>
+      </c>
+      <c r="AO266" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP266" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS266" s="5"/>
+      <c r="AY266" s="5"/>
+      <c r="BH266" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>3521103682249</v>
+      </c>
+      <c r="B267" s="2">
+        <v>44491</v>
+      </c>
+      <c r="C267" t="s">
+        <v>471</v>
+      </c>
+      <c r="D267" s="2">
+        <v>25565</v>
+      </c>
+      <c r="E267" s="2">
+        <v>44486</v>
+      </c>
+      <c r="F267" t="s">
+        <v>168</v>
+      </c>
+      <c r="M267" s="3"/>
+      <c r="O267" s="4"/>
+      <c r="P267" s="5"/>
+      <c r="R267" s="4"/>
+      <c r="S267" s="5"/>
+      <c r="V267" s="5"/>
+      <c r="Y267" s="3"/>
+      <c r="AB267" s="5"/>
+      <c r="AE267" s="5"/>
+      <c r="AH267" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI267" s="2">
+        <v>44491</v>
+      </c>
+      <c r="AJ267" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK267" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL267" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM267" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN267" s="2">
+        <v>44491</v>
+      </c>
+      <c r="AO267" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP267" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS267" s="5"/>
+      <c r="AY267" s="5"/>
+      <c r="BH267" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>3521103981092</v>
+      </c>
+      <c r="B268" s="2">
+        <v>44492</v>
+      </c>
+      <c r="C268" t="s">
+        <v>472</v>
+      </c>
+      <c r="D268" s="2">
+        <v>30691</v>
+      </c>
+      <c r="E268" s="2">
+        <v>44489</v>
+      </c>
+      <c r="F268" t="s">
+        <v>32</v>
+      </c>
+      <c r="M268" s="3"/>
+      <c r="O268" s="4"/>
+      <c r="P268" s="5"/>
+      <c r="R268" s="4"/>
+      <c r="S268" s="5"/>
+      <c r="V268" s="5"/>
+      <c r="Y268" s="3"/>
+      <c r="AB268" s="5"/>
+      <c r="AE268" s="5"/>
+      <c r="AH268" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI268" s="2">
+        <v>44492</v>
+      </c>
+      <c r="AJ268" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK268" t="s">
+        <v>473</v>
+      </c>
+      <c r="AL268" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM268" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN268" s="2">
+        <v>44492</v>
+      </c>
+      <c r="AO268" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP268" t="s">
+        <v>473</v>
+      </c>
+      <c r="AQ268" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS268" s="5"/>
+      <c r="AY268" s="5"/>
+      <c r="BH268" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>3521103838801</v>
+      </c>
+      <c r="B269" s="2">
+        <v>44494</v>
+      </c>
+      <c r="C269" t="s">
+        <v>474</v>
+      </c>
+      <c r="D269" s="2">
+        <v>31356</v>
+      </c>
+      <c r="E269" s="2">
+        <v>44487</v>
+      </c>
+      <c r="F269" t="s">
+        <v>475</v>
+      </c>
+      <c r="M269" s="3"/>
+      <c r="O269" s="4"/>
+      <c r="P269" s="5"/>
+      <c r="R269" s="4"/>
+      <c r="S269" s="5"/>
+      <c r="V269" s="5"/>
+      <c r="Y269" s="3"/>
+      <c r="AB269" s="5"/>
+      <c r="AE269" s="5"/>
+      <c r="AH269" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI269" s="2">
+        <v>44487</v>
+      </c>
+      <c r="AJ269" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK269" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL269" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM269" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN269" s="2">
+        <v>44487</v>
+      </c>
+      <c r="AO269" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP269" t="s">
+        <v>444</v>
+      </c>
+      <c r="AQ269" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS269" s="5"/>
+      <c r="AY269" s="5"/>
+      <c r="BH269" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>3521102703881</v>
+      </c>
+      <c r="B270" s="2">
+        <v>44479</v>
+      </c>
+      <c r="C270" t="s">
+        <v>476</v>
+      </c>
+      <c r="D270" s="2">
+        <v>30417</v>
+      </c>
+      <c r="E270" s="2">
+        <v>44464</v>
+      </c>
+      <c r="F270" t="s">
+        <v>34</v>
+      </c>
+      <c r="M270" s="3"/>
+      <c r="O270" s="4"/>
+      <c r="P270" s="5"/>
+      <c r="R270" s="4"/>
+      <c r="S270" s="5"/>
+      <c r="V270" s="5"/>
+      <c r="Y270" s="3"/>
+      <c r="AB270" s="5"/>
+      <c r="AE270" s="5"/>
+      <c r="AH270" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI270" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AJ270" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK270" t="s">
+        <v>477</v>
+      </c>
+      <c r="AL270" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM270" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN270" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AO270" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP270" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ270" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS270" s="5"/>
+      <c r="AY270" s="5"/>
+      <c r="BH270" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>3521102801486</v>
+      </c>
+      <c r="B271" s="2">
+        <v>44472</v>
+      </c>
+      <c r="C271" t="s">
+        <v>478</v>
+      </c>
+      <c r="D271" s="2">
+        <v>31201</v>
+      </c>
+      <c r="E271" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F271" t="s">
+        <v>32</v>
+      </c>
+      <c r="M271" s="3"/>
+      <c r="O271" s="4"/>
+      <c r="P271" s="5"/>
+      <c r="R271" s="4"/>
+      <c r="S271" s="5"/>
+      <c r="V271" s="5"/>
+      <c r="Y271" s="3"/>
+      <c r="AB271" s="5"/>
+      <c r="AE271" s="5"/>
+      <c r="AH271" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI271" s="2">
+        <v>44472</v>
+      </c>
+      <c r="AJ271" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK271" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL271" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM271" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN271" s="2">
+        <v>44472</v>
+      </c>
+      <c r="AO271" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP271" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ271" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS271" s="5"/>
+      <c r="AY271" s="5"/>
+      <c r="BH271" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>3521103408445</v>
+      </c>
+      <c r="B272" s="2">
+        <v>44488</v>
+      </c>
+      <c r="C272" t="s">
+        <v>479</v>
+      </c>
+      <c r="D272" s="2">
+        <v>31618</v>
+      </c>
+      <c r="E272" s="2">
+        <v>44488</v>
+      </c>
+      <c r="F272" t="s">
+        <v>174</v>
+      </c>
+      <c r="M272" s="3"/>
+      <c r="O272" s="4"/>
+      <c r="P272" s="5"/>
+      <c r="R272" s="4"/>
+      <c r="S272" s="5"/>
+      <c r="V272" s="5"/>
+      <c r="Y272" s="3"/>
+      <c r="AB272" s="5"/>
+      <c r="AE272" s="5"/>
+      <c r="AH272" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI272" s="2">
+        <v>44488</v>
+      </c>
+      <c r="AJ272" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK272" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL272" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN272" s="2">
+        <v>44488</v>
+      </c>
+      <c r="AO272" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP272" t="s">
+        <v>480</v>
+      </c>
+      <c r="AQ272" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS272" s="5"/>
+      <c r="AY272" s="5"/>
+      <c r="BH272" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>3521104158014</v>
+      </c>
+      <c r="B273" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C273" t="s">
+        <v>481</v>
+      </c>
+      <c r="D273" s="2">
+        <v>29042</v>
+      </c>
+      <c r="E273" s="2">
+        <v>44494</v>
+      </c>
+      <c r="F273" t="s">
+        <v>482</v>
+      </c>
+      <c r="J273" s="2">
+        <v>44497</v>
+      </c>
+      <c r="L273" t="s">
+        <v>40</v>
+      </c>
+      <c r="M273" s="3"/>
+      <c r="O273" s="4"/>
+      <c r="P273" s="5"/>
+      <c r="R273" s="4"/>
+      <c r="S273" s="5"/>
+      <c r="V273" s="5"/>
+      <c r="Y273" s="3"/>
+      <c r="AB273" s="5"/>
+      <c r="AE273" s="5"/>
+      <c r="AH273" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI273" s="2">
+        <v>44497</v>
+      </c>
+      <c r="AJ273" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK273" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL273" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM273" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN273" s="2">
+        <v>44497</v>
+      </c>
+      <c r="AO273" s="4"/>
+      <c r="AR273" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS273" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT273" s="2">
+        <v>44497</v>
+      </c>
+      <c r="AU273" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV273" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW273" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY273" s="5"/>
+      <c r="BD273" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE273" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF273" s="2">
+        <v>44504</v>
+      </c>
+      <c r="BH273" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>3521102101869</v>
+      </c>
+      <c r="B274" s="2">
+        <v>44471</v>
+      </c>
+      <c r="C274" t="s">
+        <v>483</v>
+      </c>
+      <c r="D274" s="2">
+        <v>38398</v>
+      </c>
+      <c r="E274" s="2">
+        <v>44465</v>
+      </c>
+      <c r="F274" t="s">
+        <v>475</v>
+      </c>
+      <c r="M274" s="3"/>
+      <c r="O274" s="4"/>
+      <c r="P274" s="5"/>
+      <c r="R274" s="4"/>
+      <c r="S274" s="5"/>
+      <c r="V274" s="5"/>
+      <c r="Y274" s="3"/>
+      <c r="AB274" s="5"/>
+      <c r="AE274" s="5"/>
+      <c r="AH274" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI274" s="2">
+        <v>44469</v>
+      </c>
+      <c r="AJ274" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK274">
+        <v>2713210601</v>
+      </c>
+      <c r="AL274" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM274" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN274" s="2">
+        <v>44469</v>
+      </c>
+      <c r="AO274" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP274">
+        <v>2713210601</v>
+      </c>
+      <c r="AQ274" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS274" s="5"/>
+      <c r="AY274" s="5"/>
+      <c r="BH274" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>3521103906128</v>
+      </c>
+      <c r="B275" s="2">
+        <v>44495</v>
+      </c>
+      <c r="C275" t="s">
+        <v>484</v>
+      </c>
+      <c r="D275" s="2">
+        <v>29183</v>
+      </c>
+      <c r="E275" s="2">
+        <v>44493</v>
+      </c>
+      <c r="F275" t="s">
+        <v>485</v>
+      </c>
+      <c r="M275" s="3"/>
+      <c r="O275" s="4"/>
+      <c r="P275" s="5"/>
+      <c r="R275" s="4"/>
+      <c r="S275" s="5"/>
+      <c r="V275" s="5"/>
+      <c r="Y275" s="3"/>
+      <c r="AB275" s="5"/>
+      <c r="AE275" s="5"/>
+      <c r="AH275" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI275" s="2">
+        <v>44495</v>
+      </c>
+      <c r="AJ275" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK275" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL275" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM275" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN275" s="2">
+        <v>44495</v>
+      </c>
+      <c r="AO275" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP275" t="s">
+        <v>447</v>
+      </c>
+      <c r="AQ275" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS275" s="5"/>
+      <c r="AY275" s="5"/>
+      <c r="BH275" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>3521102811036</v>
+      </c>
+      <c r="B276" s="2">
+        <v>44481</v>
+      </c>
+      <c r="C276" t="s">
+        <v>486</v>
+      </c>
+      <c r="D276" s="2">
+        <v>29679</v>
+      </c>
+      <c r="E276" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F276" t="s">
+        <v>311</v>
+      </c>
+      <c r="M276" s="3"/>
+      <c r="O276" s="4"/>
+      <c r="P276" s="5"/>
+      <c r="R276" s="4"/>
+      <c r="S276" s="5"/>
+      <c r="V276" s="5"/>
+      <c r="Y276" s="3"/>
+      <c r="AB276" s="5"/>
+      <c r="AE276" s="5"/>
+      <c r="AH276" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI276" s="2">
+        <v>44481</v>
+      </c>
+      <c r="AJ276" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK276" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL276" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN276" s="2">
+        <v>44481</v>
+      </c>
+      <c r="AO276" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP276" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ276" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS276" s="5"/>
+      <c r="AY276" s="5"/>
+      <c r="BH276" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>3521102115876</v>
+      </c>
+      <c r="B277" s="2">
+        <v>44472</v>
+      </c>
+      <c r="C277" t="s">
+        <v>487</v>
+      </c>
+      <c r="D277" s="2">
+        <v>28704</v>
+      </c>
+      <c r="E277" s="2">
+        <v>44456</v>
+      </c>
+      <c r="F277" t="s">
+        <v>58</v>
+      </c>
+      <c r="M277" s="3"/>
+      <c r="O277" s="4"/>
+      <c r="P277" s="5"/>
+      <c r="R277" s="4"/>
+      <c r="S277" s="5"/>
+      <c r="V277" s="5"/>
+      <c r="Y277" s="3"/>
+      <c r="AB277" s="5"/>
+      <c r="AE277" s="5"/>
+      <c r="AH277" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI277" s="2">
+        <v>44459</v>
+      </c>
+      <c r="AJ277" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL277" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM277" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN277" s="2">
+        <v>44459</v>
+      </c>
+      <c r="AO277" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP277" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ277" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS277" s="5"/>
+      <c r="AY277" s="5"/>
+      <c r="BD277" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE277" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF277" s="2">
+        <v>44503</v>
+      </c>
+      <c r="BH277" t="s">
+        <v>452</v>
+      </c>
+      <c r="BI277" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:BI277"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/fechamento_2021/fechamento_outubro/NegativoTesteOutubro.xlsx
+++ b/fechamento_2021/fechamento_outubro/NegativoTesteOutubro.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d788796\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_outubro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347FD127-9887-4BE4-994C-497D6F3C3D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="675" windowWidth="21840" windowHeight="12030"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="525">
   <si>
     <t>GUSTAVO NATAN VASCONCELOS DE SOUSA</t>
   </si>
@@ -1483,12 +1489,123 @@
   </si>
   <si>
     <t>RITA DE CASSIA RUIZ DA SILVA TAVARES</t>
+  </si>
+  <si>
+    <t>RODRIGO DA CONSOLACAO DE MIRANDA</t>
+  </si>
+  <si>
+    <t>RODRIGO JESUS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ROSANA ROSSI SALES</t>
+  </si>
+  <si>
+    <t>41DG337A</t>
+  </si>
+  <si>
+    <t>ROSANGELA BARAUNA FERREIRA DE ANDRADE</t>
+  </si>
+  <si>
+    <t>ROSIMEIRE DOMINGOS DA SILVA</t>
+  </si>
+  <si>
+    <t>SABRINA ROCHA DA SILVA</t>
+  </si>
+  <si>
+    <t>Assintomatico</t>
+  </si>
+  <si>
+    <t>COVAGSW00621</t>
+  </si>
+  <si>
+    <t>SAMANTA LUDIMILA LIBERATO</t>
+  </si>
+  <si>
+    <t>SAMI HUMBERTO FERREIRA VALDIVIA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta, Febre</t>
+  </si>
+  <si>
+    <t>SAMIA JOSEPH EL ZAMMAR DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>41ADG311A</t>
+  </si>
+  <si>
+    <t>SERGIO CABRAL DE LIMA</t>
+  </si>
+  <si>
+    <t>Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>SHIRLEY FARIAS</t>
+  </si>
+  <si>
+    <t>41ADG325A</t>
+  </si>
+  <si>
+    <t>SILVIA ANGELINE RIBEIRO</t>
+  </si>
+  <si>
+    <t>SOLANGE AP CORTOPASSI PIRES</t>
+  </si>
+  <si>
+    <t>TANIA MARA</t>
+  </si>
+  <si>
+    <t>TANIA VIEL MATOS</t>
+  </si>
+  <si>
+    <t>THALITA S G COSTA</t>
+  </si>
+  <si>
+    <t>THAYNA PIRES DE CARVALHO</t>
+  </si>
+  <si>
+    <t>THIAGO BARBOSA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>41adg330a</t>
+  </si>
+  <si>
+    <t>THIAGO RAMALDES SANTOS</t>
+  </si>
+  <si>
+    <t>TIFFANY DE FEBBA SOUZA</t>
+  </si>
+  <si>
+    <t>VANILDA MARIA MARTINS MELO</t>
+  </si>
+  <si>
+    <t>VICTOR VIEIRA MENEZES SILVA</t>
+  </si>
+  <si>
+    <t>41adg335a</t>
+  </si>
+  <si>
+    <t>VITORIA GONCALVES VIRGINIA DA SILVA</t>
+  </si>
+  <si>
+    <t>WEINNIE ALVES DA ROCHA POMPERMAYER</t>
+  </si>
+  <si>
+    <t>WELLIO ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Coriza</t>
+  </si>
+  <si>
+    <t>WILHELM HUGENSCHMIDT</t>
+  </si>
+  <si>
+    <t>YVES BOKALEFF RIBEIRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1556,6 +1673,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1563,7 +1683,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1601,9 +1721,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1636,9 +1756,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1671,9 +1808,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1846,11 +2000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI277"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BI304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278:XFD304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23740,14 +23894,1847 @@
         <v>13</v>
       </c>
     </row>
+    <row r="278" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>3521102232506</v>
+      </c>
+      <c r="B278" s="2">
+        <v>44473</v>
+      </c>
+      <c r="C278" t="s">
+        <v>488</v>
+      </c>
+      <c r="D278" s="2">
+        <v>33547</v>
+      </c>
+      <c r="E278" s="2">
+        <v>44438</v>
+      </c>
+      <c r="F278" t="s">
+        <v>160</v>
+      </c>
+      <c r="M278" s="3"/>
+      <c r="O278" s="4"/>
+      <c r="P278" s="5"/>
+      <c r="R278" s="4"/>
+      <c r="S278" s="5"/>
+      <c r="V278" s="5"/>
+      <c r="Y278" s="3"/>
+      <c r="AB278" s="5"/>
+      <c r="AE278" s="5"/>
+      <c r="AH278" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI278" s="2">
+        <v>44473</v>
+      </c>
+      <c r="AJ278" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK278">
+        <v>2106913</v>
+      </c>
+      <c r="AL278" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM278" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN278" s="2">
+        <v>44473</v>
+      </c>
+      <c r="AO278" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP278">
+        <v>2106913</v>
+      </c>
+      <c r="AQ278" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS278" s="5"/>
+      <c r="AY278" s="5"/>
+      <c r="BH278" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>3521102769827</v>
+      </c>
+      <c r="B279" s="2">
+        <v>44480</v>
+      </c>
+      <c r="C279" t="s">
+        <v>489</v>
+      </c>
+      <c r="D279" s="2">
+        <v>32002</v>
+      </c>
+      <c r="E279" s="2">
+        <v>44476</v>
+      </c>
+      <c r="F279" t="s">
+        <v>311</v>
+      </c>
+      <c r="M279" s="3"/>
+      <c r="O279" s="4"/>
+      <c r="P279" s="5"/>
+      <c r="R279" s="4"/>
+      <c r="S279" s="5"/>
+      <c r="V279" s="5"/>
+      <c r="Y279" s="3"/>
+      <c r="AB279" s="5"/>
+      <c r="AE279" s="5"/>
+      <c r="AH279" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI279" s="2">
+        <v>44480</v>
+      </c>
+      <c r="AJ279" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK279" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL279" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN279" s="2">
+        <v>44480</v>
+      </c>
+      <c r="AO279" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP279" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ279" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS279" s="5"/>
+      <c r="AY279" s="5"/>
+      <c r="BH279" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>3521103175148</v>
+      </c>
+      <c r="B280" s="2">
+        <v>44486</v>
+      </c>
+      <c r="C280" t="s">
+        <v>490</v>
+      </c>
+      <c r="D280" s="2">
+        <v>31255</v>
+      </c>
+      <c r="E280" s="2">
+        <v>44479</v>
+      </c>
+      <c r="F280" t="s">
+        <v>327</v>
+      </c>
+      <c r="M280" s="3"/>
+      <c r="O280" s="4"/>
+      <c r="P280" s="5"/>
+      <c r="R280" s="4"/>
+      <c r="S280" s="5"/>
+      <c r="V280" s="5"/>
+      <c r="Y280" s="3"/>
+      <c r="AB280" s="5"/>
+      <c r="AE280" s="5"/>
+      <c r="AH280" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI280" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AJ280" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>491</v>
+      </c>
+      <c r="AL280" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN280" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AO280" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP280" t="s">
+        <v>491</v>
+      </c>
+      <c r="AQ280" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS280" s="5"/>
+      <c r="AY280" s="5"/>
+      <c r="BH280" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>3521102810224</v>
+      </c>
+      <c r="B281" s="2">
+        <v>44481</v>
+      </c>
+      <c r="C281" t="s">
+        <v>492</v>
+      </c>
+      <c r="D281" s="2">
+        <v>27381</v>
+      </c>
+      <c r="E281" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F281" t="s">
+        <v>185</v>
+      </c>
+      <c r="M281" s="3"/>
+      <c r="O281" s="4"/>
+      <c r="P281" s="5"/>
+      <c r="R281" s="4"/>
+      <c r="S281" s="5"/>
+      <c r="V281" s="5"/>
+      <c r="Y281" s="3"/>
+      <c r="AB281" s="5"/>
+      <c r="AE281" s="5"/>
+      <c r="AH281" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI281" s="2">
+        <v>44474</v>
+      </c>
+      <c r="AJ281" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK281">
+        <v>2713210601</v>
+      </c>
+      <c r="AL281" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM281" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN281" s="2">
+        <v>44474</v>
+      </c>
+      <c r="AO281" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP281">
+        <v>2713210601</v>
+      </c>
+      <c r="AQ281" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS281" s="5"/>
+      <c r="AY281" s="5"/>
+      <c r="BH281" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>3521104283338</v>
+      </c>
+      <c r="B282" s="2">
+        <v>44499</v>
+      </c>
+      <c r="C282" t="s">
+        <v>493</v>
+      </c>
+      <c r="D282" s="2">
+        <v>30446</v>
+      </c>
+      <c r="E282" s="2">
+        <v>44476</v>
+      </c>
+      <c r="F282" t="s">
+        <v>282</v>
+      </c>
+      <c r="M282" s="3"/>
+      <c r="O282" s="4"/>
+      <c r="P282" s="5"/>
+      <c r="R282" s="4"/>
+      <c r="S282" s="5"/>
+      <c r="V282" s="5"/>
+      <c r="Y282" s="3"/>
+      <c r="AB282" s="5"/>
+      <c r="AE282" s="5"/>
+      <c r="AH282" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI282" s="2">
+        <v>44477</v>
+      </c>
+      <c r="AJ282" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL282" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN282" s="2">
+        <v>44477</v>
+      </c>
+      <c r="AO282" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP282" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ282" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS282" s="5"/>
+      <c r="AY282" s="5"/>
+      <c r="BH282" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>4121102118736</v>
+      </c>
+      <c r="B283" s="2">
+        <v>44472</v>
+      </c>
+      <c r="C283" t="s">
+        <v>494</v>
+      </c>
+      <c r="D283" s="2">
+        <v>35138</v>
+      </c>
+      <c r="E283" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F283" t="s">
+        <v>495</v>
+      </c>
+      <c r="M283" s="3"/>
+      <c r="O283" s="4"/>
+      <c r="P283" s="5"/>
+      <c r="R283" s="4"/>
+      <c r="S283" s="5"/>
+      <c r="V283" s="5"/>
+      <c r="Y283" s="3"/>
+      <c r="AB283" s="5"/>
+      <c r="AE283" s="5"/>
+      <c r="AH283" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI283" s="2">
+        <v>44472</v>
+      </c>
+      <c r="AJ283" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL283" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN283" s="2">
+        <v>44472</v>
+      </c>
+      <c r="AO283" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP283" t="s">
+        <v>496</v>
+      </c>
+      <c r="AQ283" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS283" s="5"/>
+      <c r="AY283" s="5"/>
+      <c r="BH283" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>3521102088819</v>
+      </c>
+      <c r="B284" s="2">
+        <v>44471</v>
+      </c>
+      <c r="C284" t="s">
+        <v>497</v>
+      </c>
+      <c r="D284" s="2">
+        <v>34612</v>
+      </c>
+      <c r="E284" s="2">
+        <v>44467</v>
+      </c>
+      <c r="F284" t="s">
+        <v>322</v>
+      </c>
+      <c r="M284" s="3"/>
+      <c r="O284" s="4"/>
+      <c r="P284" s="5"/>
+      <c r="R284" s="4"/>
+      <c r="S284" s="5"/>
+      <c r="V284" s="5"/>
+      <c r="Y284" s="3"/>
+      <c r="AB284" s="5"/>
+      <c r="AE284" s="5"/>
+      <c r="AH284" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI284" s="2">
+        <v>44471</v>
+      </c>
+      <c r="AJ284" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK284" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL284" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM284" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN284" s="2">
+        <v>44471</v>
+      </c>
+      <c r="AO284" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP284" t="s">
+        <v>460</v>
+      </c>
+      <c r="AQ284" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS284" s="5"/>
+      <c r="AY284" s="5"/>
+      <c r="BH284" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>3521102824022</v>
+      </c>
+      <c r="B285" s="2">
+        <v>44482</v>
+      </c>
+      <c r="C285" t="s">
+        <v>498</v>
+      </c>
+      <c r="D285" s="2">
+        <v>31740</v>
+      </c>
+      <c r="E285" s="2">
+        <v>44480</v>
+      </c>
+      <c r="F285" t="s">
+        <v>499</v>
+      </c>
+      <c r="J285" s="2">
+        <v>44482</v>
+      </c>
+      <c r="L285" t="s">
+        <v>40</v>
+      </c>
+      <c r="M285" s="3"/>
+      <c r="O285" s="4"/>
+      <c r="P285" s="5"/>
+      <c r="R285" s="4"/>
+      <c r="S285" s="5"/>
+      <c r="V285" s="5"/>
+      <c r="Y285" s="3"/>
+      <c r="AB285" s="5"/>
+      <c r="AE285" s="5"/>
+      <c r="AH285" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI285" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AJ285" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK285" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL285" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM285" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN285" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AO285" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP285" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ285" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR285" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS285" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT285" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AU285" s="4"/>
+      <c r="AY285" s="5"/>
+      <c r="BD285" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE285" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF285" s="2">
+        <v>44483</v>
+      </c>
+      <c r="BH285" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>3521103680812</v>
+      </c>
+      <c r="B286" s="2">
+        <v>44491</v>
+      </c>
+      <c r="C286" t="s">
+        <v>500</v>
+      </c>
+      <c r="D286" s="2">
+        <v>22033</v>
+      </c>
+      <c r="E286" s="2">
+        <v>44485</v>
+      </c>
+      <c r="F286" t="s">
+        <v>21</v>
+      </c>
+      <c r="M286" s="3"/>
+      <c r="O286" s="4"/>
+      <c r="P286" s="5"/>
+      <c r="R286" s="4"/>
+      <c r="S286" s="5"/>
+      <c r="V286" s="5"/>
+      <c r="Y286" s="3"/>
+      <c r="AB286" s="5"/>
+      <c r="AE286" s="5"/>
+      <c r="AH286" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI286" s="2">
+        <v>44491</v>
+      </c>
+      <c r="AJ286" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL286" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM286" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN286" s="2">
+        <v>44491</v>
+      </c>
+      <c r="AO286" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP286" t="s">
+        <v>501</v>
+      </c>
+      <c r="AQ286" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS286" s="5"/>
+      <c r="AY286" s="5"/>
+      <c r="BH286" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>3521102810286</v>
+      </c>
+      <c r="B287" s="2">
+        <v>44481</v>
+      </c>
+      <c r="C287" t="s">
+        <v>502</v>
+      </c>
+      <c r="D287" s="2">
+        <v>26109</v>
+      </c>
+      <c r="E287" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F287" t="s">
+        <v>503</v>
+      </c>
+      <c r="M287" s="3"/>
+      <c r="O287" s="4"/>
+      <c r="P287" s="5"/>
+      <c r="R287" s="4"/>
+      <c r="S287" s="5"/>
+      <c r="V287" s="5"/>
+      <c r="Y287" s="3"/>
+      <c r="AB287" s="5"/>
+      <c r="AE287" s="5"/>
+      <c r="AH287" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI287" s="2">
+        <v>44474</v>
+      </c>
+      <c r="AJ287" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK287">
+        <v>2713210601</v>
+      </c>
+      <c r="AL287" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM287" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN287" s="2">
+        <v>44474</v>
+      </c>
+      <c r="AO287" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP287">
+        <v>2713210601</v>
+      </c>
+      <c r="AQ287" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS287" s="5"/>
+      <c r="AY287" s="5"/>
+      <c r="BH287" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>3521102071260</v>
+      </c>
+      <c r="B288" s="2">
+        <v>44471</v>
+      </c>
+      <c r="C288" t="s">
+        <v>504</v>
+      </c>
+      <c r="D288" s="2">
+        <v>32609</v>
+      </c>
+      <c r="E288" s="2">
+        <v>44468</v>
+      </c>
+      <c r="F288" t="s">
+        <v>28</v>
+      </c>
+      <c r="M288" s="3"/>
+      <c r="O288" s="4"/>
+      <c r="P288" s="5"/>
+      <c r="R288" s="4"/>
+      <c r="S288" s="5"/>
+      <c r="V288" s="5"/>
+      <c r="Y288" s="3"/>
+      <c r="AB288" s="5"/>
+      <c r="AE288" s="5"/>
+      <c r="AH288" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI288" s="2">
+        <v>44471</v>
+      </c>
+      <c r="AJ288" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL288" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM288" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN288" s="2">
+        <v>44471</v>
+      </c>
+      <c r="AO288" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP288" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ288" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS288" s="5"/>
+      <c r="AY288" s="5"/>
+      <c r="BH288" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>3521102168800</v>
+      </c>
+      <c r="B289" s="2">
+        <v>44473</v>
+      </c>
+      <c r="C289" t="s">
+        <v>506</v>
+      </c>
+      <c r="D289" s="2">
+        <v>30710</v>
+      </c>
+      <c r="E289" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F289" t="s">
+        <v>48</v>
+      </c>
+      <c r="M289" s="3"/>
+      <c r="O289" s="4"/>
+      <c r="P289" s="5"/>
+      <c r="R289" s="4"/>
+      <c r="S289" s="5"/>
+      <c r="V289" s="5"/>
+      <c r="Y289" s="3"/>
+      <c r="AB289" s="5"/>
+      <c r="AE289" s="5"/>
+      <c r="AH289" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI289" s="2">
+        <v>44473</v>
+      </c>
+      <c r="AJ289" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK289" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL289" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM289" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN289" s="2">
+        <v>44473</v>
+      </c>
+      <c r="AO289" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP289" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ289" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS289" s="5"/>
+      <c r="AY289" s="5"/>
+      <c r="BH289" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>3521104315817</v>
+      </c>
+      <c r="B290" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C290" t="s">
+        <v>507</v>
+      </c>
+      <c r="D290" s="2">
+        <v>24822</v>
+      </c>
+      <c r="E290" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F290" t="s">
+        <v>287</v>
+      </c>
+      <c r="M290" s="3"/>
+      <c r="O290" s="4"/>
+      <c r="P290" s="5"/>
+      <c r="R290" s="4"/>
+      <c r="S290" s="5"/>
+      <c r="V290" s="5"/>
+      <c r="Y290" s="3"/>
+      <c r="AB290" s="5"/>
+      <c r="AE290" s="5"/>
+      <c r="AH290" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI290" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AJ290" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK290" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL290" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN290" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AO290" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP290" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS290" s="5"/>
+      <c r="AY290" s="5"/>
+      <c r="BH290" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>3521102532795</v>
+      </c>
+      <c r="B291" s="2">
+        <v>44476</v>
+      </c>
+      <c r="C291" t="s">
+        <v>508</v>
+      </c>
+      <c r="D291" s="2">
+        <v>23146</v>
+      </c>
+      <c r="E291" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F291" t="s">
+        <v>28</v>
+      </c>
+      <c r="M291" s="3"/>
+      <c r="O291" s="4"/>
+      <c r="P291" s="5"/>
+      <c r="R291" s="4"/>
+      <c r="S291" s="5"/>
+      <c r="V291" s="5"/>
+      <c r="Y291" s="3"/>
+      <c r="AB291" s="5"/>
+      <c r="AE291" s="5"/>
+      <c r="AH291" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI291" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AJ291" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL291" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN291" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AO291" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP291" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS291" s="5"/>
+      <c r="AY291" s="5"/>
+      <c r="BH291" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>3521104306275</v>
+      </c>
+      <c r="B292" s="2">
+        <v>44499</v>
+      </c>
+      <c r="C292" t="s">
+        <v>509</v>
+      </c>
+      <c r="D292" s="2">
+        <v>22019</v>
+      </c>
+      <c r="E292" s="2">
+        <v>44481</v>
+      </c>
+      <c r="F292" t="s">
+        <v>240</v>
+      </c>
+      <c r="M292" s="3"/>
+      <c r="O292" s="4"/>
+      <c r="P292" s="5"/>
+      <c r="R292" s="4"/>
+      <c r="S292" s="5"/>
+      <c r="V292" s="5"/>
+      <c r="Y292" s="3"/>
+      <c r="AB292" s="5"/>
+      <c r="AE292" s="5"/>
+      <c r="AH292" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI292" s="2">
+        <v>44484</v>
+      </c>
+      <c r="AJ292" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK292">
+        <v>2713210601</v>
+      </c>
+      <c r="AL292" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM292" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN292" s="2">
+        <v>44484</v>
+      </c>
+      <c r="AO292" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP292">
+        <v>2713210601</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS292" s="5"/>
+      <c r="AY292" s="5"/>
+      <c r="BH292" t="s">
+        <v>452</v>
+      </c>
+      <c r="BI292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>3521102563009</v>
+      </c>
+      <c r="B293" s="2">
+        <v>44476</v>
+      </c>
+      <c r="C293" t="s">
+        <v>510</v>
+      </c>
+      <c r="D293" s="2">
+        <v>34780</v>
+      </c>
+      <c r="E293" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F293" t="s">
+        <v>311</v>
+      </c>
+      <c r="M293" s="3"/>
+      <c r="O293" s="4"/>
+      <c r="P293" s="5"/>
+      <c r="R293" s="4"/>
+      <c r="S293" s="5"/>
+      <c r="V293" s="5"/>
+      <c r="Y293" s="3"/>
+      <c r="AB293" s="5"/>
+      <c r="AE293" s="5"/>
+      <c r="AH293" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI293" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AJ293" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK293" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL293" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM293" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN293" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AO293" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP293" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ293" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS293" s="5"/>
+      <c r="AY293" s="5"/>
+      <c r="BH293" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>3521104316026</v>
+      </c>
+      <c r="B294" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C294" t="s">
+        <v>511</v>
+      </c>
+      <c r="D294" s="2">
+        <v>38014</v>
+      </c>
+      <c r="E294" s="2">
+        <v>44479</v>
+      </c>
+      <c r="F294" t="s">
+        <v>454</v>
+      </c>
+      <c r="M294" s="3"/>
+      <c r="O294" s="4"/>
+      <c r="P294" s="5"/>
+      <c r="R294" s="4"/>
+      <c r="S294" s="5"/>
+      <c r="V294" s="5"/>
+      <c r="Y294" s="3"/>
+      <c r="AB294" s="5"/>
+      <c r="AE294" s="5"/>
+      <c r="AH294" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI294" s="2">
+        <v>44484</v>
+      </c>
+      <c r="AJ294" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL294" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM294" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN294" s="2">
+        <v>44484</v>
+      </c>
+      <c r="AO294" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP294" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ294" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS294" s="5"/>
+      <c r="AY294" s="5"/>
+      <c r="BH294" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>3521103783515</v>
+      </c>
+      <c r="B295" s="2">
+        <v>44494</v>
+      </c>
+      <c r="C295" t="s">
+        <v>512</v>
+      </c>
+      <c r="D295" s="2">
+        <v>35623</v>
+      </c>
+      <c r="E295" s="2">
+        <v>44492</v>
+      </c>
+      <c r="F295" t="s">
+        <v>422</v>
+      </c>
+      <c r="M295" s="3"/>
+      <c r="O295" s="4"/>
+      <c r="P295" s="5"/>
+      <c r="R295" s="4"/>
+      <c r="S295" s="5"/>
+      <c r="V295" s="5"/>
+      <c r="Y295" s="3"/>
+      <c r="AB295" s="5"/>
+      <c r="AE295" s="5"/>
+      <c r="AH295" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI295" s="2">
+        <v>44494</v>
+      </c>
+      <c r="AJ295" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>513</v>
+      </c>
+      <c r="AL295" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM295" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN295" s="2">
+        <v>44494</v>
+      </c>
+      <c r="AO295" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP295" t="s">
+        <v>513</v>
+      </c>
+      <c r="AQ295" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS295" s="5"/>
+      <c r="AY295" s="5"/>
+      <c r="BH295" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>3521102715975</v>
+      </c>
+      <c r="B296" s="2">
+        <v>44479</v>
+      </c>
+      <c r="C296" t="s">
+        <v>514</v>
+      </c>
+      <c r="D296" s="2">
+        <v>33674</v>
+      </c>
+      <c r="E296" s="2">
+        <v>44468</v>
+      </c>
+      <c r="F296" t="s">
+        <v>454</v>
+      </c>
+      <c r="M296" s="3"/>
+      <c r="O296" s="4"/>
+      <c r="P296" s="5"/>
+      <c r="R296" s="4"/>
+      <c r="S296" s="5"/>
+      <c r="V296" s="5"/>
+      <c r="Y296" s="3"/>
+      <c r="AB296" s="5"/>
+      <c r="AE296" s="5"/>
+      <c r="AH296" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI296" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AJ296" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL296" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM296" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN296" s="2">
+        <v>44470</v>
+      </c>
+      <c r="AO296" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP296" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ296" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS296" s="5"/>
+      <c r="AY296" s="5"/>
+      <c r="BH296" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>3521103699107</v>
+      </c>
+      <c r="B297" s="2">
+        <v>44491</v>
+      </c>
+      <c r="C297" t="s">
+        <v>515</v>
+      </c>
+      <c r="D297" s="2">
+        <v>36058</v>
+      </c>
+      <c r="E297" s="2">
+        <v>44490</v>
+      </c>
+      <c r="F297" t="s">
+        <v>311</v>
+      </c>
+      <c r="M297" s="3"/>
+      <c r="O297" s="4"/>
+      <c r="P297" s="5"/>
+      <c r="R297" s="4"/>
+      <c r="S297" s="5"/>
+      <c r="V297" s="5"/>
+      <c r="Y297" s="3"/>
+      <c r="AB297" s="5"/>
+      <c r="AE297" s="5"/>
+      <c r="AH297" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI297" s="2">
+        <v>44491</v>
+      </c>
+      <c r="AJ297" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>477</v>
+      </c>
+      <c r="AL297" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM297" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN297" s="2">
+        <v>44491</v>
+      </c>
+      <c r="AO297" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP297" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ297" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS297" s="5"/>
+      <c r="AY297" s="5"/>
+      <c r="BH297" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>3521104329231</v>
+      </c>
+      <c r="B298" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C298" t="s">
+        <v>516</v>
+      </c>
+      <c r="D298" s="2">
+        <v>27978</v>
+      </c>
+      <c r="E298" s="2">
+        <v>44493</v>
+      </c>
+      <c r="F298" t="s">
+        <v>390</v>
+      </c>
+      <c r="M298" s="3"/>
+      <c r="O298" s="4"/>
+      <c r="P298" s="5"/>
+      <c r="R298" s="4"/>
+      <c r="S298" s="5"/>
+      <c r="V298" s="5"/>
+      <c r="Y298" s="3"/>
+      <c r="AB298" s="5"/>
+      <c r="AE298" s="5"/>
+      <c r="AH298" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI298" s="2">
+        <v>44500</v>
+      </c>
+      <c r="AJ298" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL298" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN298" s="2">
+        <v>44500</v>
+      </c>
+      <c r="AO298" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP298" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS298" s="5"/>
+      <c r="AY298" s="5"/>
+      <c r="BH298" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>3521103180112</v>
+      </c>
+      <c r="B299" s="2">
+        <v>44486</v>
+      </c>
+      <c r="C299" t="s">
+        <v>517</v>
+      </c>
+      <c r="D299" s="2">
+        <v>36619</v>
+      </c>
+      <c r="E299" s="2">
+        <v>44475</v>
+      </c>
+      <c r="F299" t="s">
+        <v>311</v>
+      </c>
+      <c r="M299" s="3"/>
+      <c r="O299" s="4"/>
+      <c r="P299" s="5"/>
+      <c r="R299" s="4"/>
+      <c r="S299" s="5"/>
+      <c r="V299" s="5"/>
+      <c r="Y299" s="3"/>
+      <c r="AB299" s="5"/>
+      <c r="AE299" s="5"/>
+      <c r="AH299" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI299" s="2">
+        <v>44486</v>
+      </c>
+      <c r="AJ299" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL299" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM299" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN299" s="2">
+        <v>44486</v>
+      </c>
+      <c r="AO299" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP299" t="s">
+        <v>518</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS299" s="5"/>
+      <c r="AY299" s="5"/>
+      <c r="BH299" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>3521102117628</v>
+      </c>
+      <c r="B300" s="2">
+        <v>44472</v>
+      </c>
+      <c r="C300" t="s">
+        <v>519</v>
+      </c>
+      <c r="D300" s="2">
+        <v>41351</v>
+      </c>
+      <c r="E300" s="2">
+        <v>44460</v>
+      </c>
+      <c r="F300" t="s">
+        <v>327</v>
+      </c>
+      <c r="M300" s="3"/>
+      <c r="O300" s="4"/>
+      <c r="P300" s="5"/>
+      <c r="R300" s="4"/>
+      <c r="S300" s="5"/>
+      <c r="V300" s="5"/>
+      <c r="Y300" s="3"/>
+      <c r="AB300" s="5"/>
+      <c r="AE300" s="5"/>
+      <c r="AH300" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI300" s="2">
+        <v>44462</v>
+      </c>
+      <c r="AJ300" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL300" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM300" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN300" s="2">
+        <v>44462</v>
+      </c>
+      <c r="AO300" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP300" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ300" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS300" s="5"/>
+      <c r="AY300" s="5"/>
+      <c r="BH300" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>3521102463939</v>
+      </c>
+      <c r="B301" s="2">
+        <v>44476</v>
+      </c>
+      <c r="C301" t="s">
+        <v>520</v>
+      </c>
+      <c r="D301" s="2">
+        <v>34072</v>
+      </c>
+      <c r="E301" s="2">
+        <v>44473</v>
+      </c>
+      <c r="F301" t="s">
+        <v>253</v>
+      </c>
+      <c r="M301" s="3"/>
+      <c r="O301" s="4"/>
+      <c r="P301" s="5"/>
+      <c r="R301" s="4"/>
+      <c r="S301" s="5"/>
+      <c r="V301" s="5"/>
+      <c r="Y301" s="3"/>
+      <c r="AB301" s="5"/>
+      <c r="AE301" s="5"/>
+      <c r="AH301" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI301" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AJ301" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK301" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL301" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM301" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN301" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AO301" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP301" t="s">
+        <v>441</v>
+      </c>
+      <c r="AQ301" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS301" s="5"/>
+      <c r="AY301" s="5"/>
+      <c r="BH301" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>3521104330029</v>
+      </c>
+      <c r="B302" s="2">
+        <v>44496</v>
+      </c>
+      <c r="C302" t="s">
+        <v>521</v>
+      </c>
+      <c r="D302" s="2">
+        <v>30754</v>
+      </c>
+      <c r="E302" s="2">
+        <v>44493</v>
+      </c>
+      <c r="F302" t="s">
+        <v>522</v>
+      </c>
+      <c r="M302" s="3"/>
+      <c r="O302" s="4"/>
+      <c r="P302" s="5"/>
+      <c r="R302" s="4"/>
+      <c r="S302" s="5"/>
+      <c r="V302" s="5"/>
+      <c r="Y302" s="3"/>
+      <c r="AB302" s="5"/>
+      <c r="AE302" s="5"/>
+      <c r="AH302" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI302" s="2">
+        <v>44496</v>
+      </c>
+      <c r="AJ302" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL302" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM302" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN302" s="2">
+        <v>44496</v>
+      </c>
+      <c r="AO302" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP302" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ302" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS302" s="5"/>
+      <c r="AY302" s="5"/>
+      <c r="BH302" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>3521102799457</v>
+      </c>
+      <c r="B303" s="2">
+        <v>44481</v>
+      </c>
+      <c r="C303" t="s">
+        <v>523</v>
+      </c>
+      <c r="D303" s="2">
+        <v>13939</v>
+      </c>
+      <c r="E303" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F303" t="s">
+        <v>214</v>
+      </c>
+      <c r="M303" s="3"/>
+      <c r="O303" s="4"/>
+      <c r="P303" s="5"/>
+      <c r="R303" s="4"/>
+      <c r="S303" s="5"/>
+      <c r="V303" s="5"/>
+      <c r="Y303" s="3"/>
+      <c r="AB303" s="5"/>
+      <c r="AE303" s="5"/>
+      <c r="AH303" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI303" s="2">
+        <v>44480</v>
+      </c>
+      <c r="AJ303" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK303">
+        <v>202102056</v>
+      </c>
+      <c r="AL303" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM303" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN303" s="2">
+        <v>44480</v>
+      </c>
+      <c r="AO303" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP303">
+        <v>202102056</v>
+      </c>
+      <c r="AQ303" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS303" s="5"/>
+      <c r="AY303" s="5"/>
+      <c r="BH303" t="s">
+        <v>435</v>
+      </c>
+      <c r="BI303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>3521103613874</v>
+      </c>
+      <c r="B304" s="2">
+        <v>44490</v>
+      </c>
+      <c r="C304" t="s">
+        <v>524</v>
+      </c>
+      <c r="D304" s="2">
+        <v>20213</v>
+      </c>
+      <c r="E304" s="2">
+        <v>44485</v>
+      </c>
+      <c r="F304" t="s">
+        <v>270</v>
+      </c>
+      <c r="M304" s="3"/>
+      <c r="O304" s="4"/>
+      <c r="P304" s="5"/>
+      <c r="R304" s="4"/>
+      <c r="S304" s="5"/>
+      <c r="V304" s="5"/>
+      <c r="Y304" s="3"/>
+      <c r="AB304" s="5"/>
+      <c r="AE304" s="5"/>
+      <c r="AH304" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI304" s="2">
+        <v>44490</v>
+      </c>
+      <c r="AJ304" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL304" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM304" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN304" s="2">
+        <v>44490</v>
+      </c>
+      <c r="AO304" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP304" t="s">
+        <v>518</v>
+      </c>
+      <c r="AQ304" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS304" s="5"/>
+      <c r="AY304" s="5"/>
+      <c r="BH304" t="s">
+        <v>452</v>
+      </c>
+      <c r="BI304" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BI277"/>
+  <autoFilter ref="A1:BI277" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23759,7 +25746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
